--- a/CourseInfo.xlsx
+++ b/CourseInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_NYU\S2023\Indie Games History\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_NYU\Semester 4\FlashGamesHistoryCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C43B8-DF6A-44C7-B415-8F3D6B9AF16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8E17D-B4BE-48B2-B674-66FE136E54D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="30" windowWidth="14370" windowHeight="15465" activeTab="2" xr2:uid="{CE762813-792F-47BF-8B78-B8C270F8B505}"/>
+    <workbookView xWindow="27375" yWindow="0" windowWidth="24225" windowHeight="21000" activeTab="2" xr2:uid="{CE762813-792F-47BF-8B78-B8C270F8B505}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="625">
   <si>
     <t>Week 1</t>
   </si>
@@ -1531,6 +1531,390 @@
   </si>
   <si>
     <t>OnlineGameSquad.com</t>
+  </si>
+  <si>
+    <t>Coolio-Niato</t>
+  </si>
+  <si>
+    <t>Nicky Case</t>
+  </si>
+  <si>
+    <t>Bomtoons</t>
+  </si>
+  <si>
+    <t>Tyler Glaiel</t>
+  </si>
+  <si>
+    <t>PixelJam Games</t>
+  </si>
+  <si>
+    <t>Game in a Bottle</t>
+  </si>
+  <si>
+    <t>Edmund McMillen, Jonathan McEntee</t>
+  </si>
+  <si>
+    <t>Reflexive</t>
+  </si>
+  <si>
+    <t>Ludus Novus</t>
+  </si>
+  <si>
+    <t>Arachnophilia</t>
+  </si>
+  <si>
+    <t>Littlegrey Media; Teale Fristoe</t>
+  </si>
+  <si>
+    <t>DigYourOwnGraveGames</t>
+  </si>
+  <si>
+    <t>Cursor*10</t>
+  </si>
+  <si>
+    <t>NEKOGAMES</t>
+  </si>
+  <si>
+    <t>Drop Dead</t>
+  </si>
+  <si>
+    <t>ttursas</t>
+  </si>
+  <si>
+    <t>Electricman 2 - The Tournament of Voltagen</t>
+  </si>
+  <si>
+    <t>Damien Clarke</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Cockroach.se</t>
+  </si>
+  <si>
+    <t>Ginormo Sword</t>
+  </si>
+  <si>
+    <t>BABARAGEO</t>
+  </si>
+  <si>
+    <t>Hands of War</t>
+  </si>
+  <si>
+    <t>Danny Jugan</t>
+  </si>
+  <si>
+    <t>Hedgehog Launch</t>
+  </si>
+  <si>
+    <t>Intrusion</t>
+  </si>
+  <si>
+    <t>Vap</t>
+  </si>
+  <si>
+    <t>Karoshi: Suicide Salaryman</t>
+  </si>
+  <si>
+    <t>Jesse Venbrux</t>
+  </si>
+  <si>
+    <t>Monsters' Den: Book of Dread</t>
+  </si>
+  <si>
+    <t>Monstrum, Daniel Stradwick</t>
+  </si>
+  <si>
+    <t>Mud and Blood 2</t>
+  </si>
+  <si>
+    <t>Urbz</t>
+  </si>
+  <si>
+    <t>Protector</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>QWOP</t>
+  </si>
+  <si>
+    <t>Bennett Foddy</t>
+  </si>
+  <si>
+    <t>Rage III</t>
+  </si>
+  <si>
+    <t>Seth Wooten</t>
+  </si>
+  <si>
+    <t>Reincarnation: A Demon's Day Out</t>
+  </si>
+  <si>
+    <t>Chris Gianelloni</t>
+  </si>
+  <si>
+    <t>Storm the House 3</t>
+  </si>
+  <si>
+    <t>Case Hollingsworth &amp; Robbie Lee</t>
+  </si>
+  <si>
+    <t>StormWinds 1.5</t>
+  </si>
+  <si>
+    <t>Hero Interactive</t>
+  </si>
+  <si>
+    <t>Super Stacker</t>
+  </si>
+  <si>
+    <t>GazThomas</t>
+  </si>
+  <si>
+    <t>The Game Homepage</t>
+  </si>
+  <si>
+    <t>Warfare 1917</t>
+  </si>
+  <si>
+    <t>Warlords: Call to Arms</t>
+  </si>
+  <si>
+    <t>Innocuous Games</t>
+  </si>
+  <si>
+    <t>Mazapan</t>
+  </si>
+  <si>
+    <t>Adult Swim</t>
+  </si>
+  <si>
+    <t>Joey Betz</t>
+  </si>
+  <si>
+    <t>longanimals</t>
+  </si>
+  <si>
+    <t>OneClickDog.com</t>
+  </si>
+  <si>
+    <t>FastGames</t>
+  </si>
+  <si>
+    <t>Eli Piilonen</t>
+  </si>
+  <si>
+    <t>GamesFree.com</t>
+  </si>
+  <si>
+    <t>Alice is Dead Chapter 1</t>
+  </si>
+  <si>
+    <t>Lorestrome</t>
+  </si>
+  <si>
+    <t>Anti-Idle: The Game</t>
+  </si>
+  <si>
+    <t>Tukkun</t>
+  </si>
+  <si>
+    <t>Bubble Tanks II</t>
+  </si>
+  <si>
+    <t>Crunchball 3000</t>
+  </si>
+  <si>
+    <t>Elona Shooter</t>
+  </si>
+  <si>
+    <t>Noa</t>
+  </si>
+  <si>
+    <t>How To Raise A Dragon</t>
+  </si>
+  <si>
+    <t>Gregory Weir</t>
+  </si>
+  <si>
+    <t>Level Up!</t>
+  </si>
+  <si>
+    <t>Nifty Hat</t>
+  </si>
+  <si>
+    <t>Morningstar</t>
+  </si>
+  <si>
+    <t>Red Herring Labs</t>
+  </si>
+  <si>
+    <t>My Pet Protector</t>
+  </si>
+  <si>
+    <t>Plazma Burst: Forward to the Past</t>
+  </si>
+  <si>
+    <t>SiBiTrix</t>
+  </si>
+  <si>
+    <t>CoolBuddy</t>
+  </si>
+  <si>
+    <t>Red Remover</t>
+  </si>
+  <si>
+    <t>Scriball</t>
+  </si>
+  <si>
+    <t>Super Mario 63</t>
+  </si>
+  <si>
+    <t>Runouw</t>
+  </si>
+  <si>
+    <t>The Great War of Prefectures</t>
+  </si>
+  <si>
+    <t>Coolbuddy</t>
+  </si>
+  <si>
+    <t>This Is The Only Level</t>
+  </si>
+  <si>
+    <t>Time 4 Cat</t>
+  </si>
+  <si>
+    <t>Megadev</t>
+  </si>
+  <si>
+    <t>Tower of Heaven</t>
+  </si>
+  <si>
+    <t>Askiisoft</t>
+  </si>
+  <si>
+    <t>Ultimate Crab Battle</t>
+  </si>
+  <si>
+    <t>Mausland</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Simon Hason</t>
+  </si>
+  <si>
+    <t>William and Sly</t>
+  </si>
+  <si>
+    <t>Kajenx</t>
+  </si>
+  <si>
+    <t>Adam Saltsman</t>
+  </si>
+  <si>
+    <t>TOGE Productions</t>
+  </si>
+  <si>
+    <t>Foreverkul</t>
+  </si>
+  <si>
+    <t>Raitendo</t>
+  </si>
+  <si>
+    <t>AtmosGames</t>
+  </si>
+  <si>
+    <t>ChannelFour</t>
+  </si>
+  <si>
+    <t>Decade Studios</t>
+  </si>
+  <si>
+    <t>I-Smel</t>
+  </si>
+  <si>
+    <t>ArcadeBomb.com</t>
+  </si>
+  <si>
+    <t>Awkward Silence Games</t>
+  </si>
+  <si>
+    <t>Mikengreg Games</t>
+  </si>
+  <si>
+    <t>City Siege</t>
+  </si>
+  <si>
+    <t>The Podge</t>
+  </si>
+  <si>
+    <t>Dummy Never Fails</t>
+  </si>
+  <si>
+    <t>Enigmata 2: Genu's Revenge</t>
+  </si>
+  <si>
+    <t>Kidgamez</t>
+  </si>
+  <si>
+    <t>Escaping the Prison</t>
+  </si>
+  <si>
+    <t>Puffballs United</t>
+  </si>
+  <si>
+    <t>Haunt the House</t>
+  </si>
+  <si>
+    <t>K.O.L.M.</t>
+  </si>
+  <si>
+    <t>Monster Slayers</t>
+  </si>
+  <si>
+    <t>nerdook</t>
+  </si>
+  <si>
+    <t>Necronator</t>
+  </si>
+  <si>
+    <t>Notebook Wars</t>
+  </si>
+  <si>
+    <t>matakukos</t>
+  </si>
+  <si>
+    <t>One Step Back</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>JackSmack</t>
+  </si>
+  <si>
+    <t>Road of the Dead</t>
+  </si>
+  <si>
+    <t>Evil Dog</t>
+  </si>
+  <si>
+    <t>SteamBirds</t>
+  </si>
+  <si>
+    <t>Andy Moore, Daniel Cook, Jordan Fehr, Danny Baranowsky</t>
+  </si>
+  <si>
+    <t>The Breach</t>
+  </si>
+  <si>
+    <t>Berzerk Studio</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +2067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1700,7 +2084,6 @@
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1720,86 +2103,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1862,11 +2183,76 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1890,12 +2276,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1910,26 +2290,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18EAFAD2-CBD9-4987-9358-0C8CEFE0ECEB}" name="Table1" displayName="Table1" ref="B2:I207" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
-  <autoFilter ref="B2:I207" xr:uid="{18EAFAD2-CBD9-4987-9358-0C8CEFE0ECEB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18EAFAD2-CBD9-4987-9358-0C8CEFE0ECEB}" name="Table1" displayName="Table1" ref="B2:I262" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B2:I262" xr:uid="{18EAFAD2-CBD9-4987-9358-0C8CEFE0ECEB}">
     <filterColumn colId="3">
       <filters>
-        <filter val="2008"/>
+        <filter val="2010"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I207">
-    <sortCondition ref="E2:E207"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B110:I180">
+    <sortCondition ref="B2:B262"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8C0E66AA-D763-4DEF-969B-BEA3559F7436}" name="Game" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1C2ACE33-FC6D-41C1-868C-D5496880081F}" name="Developer" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{DDEB4425-2220-4C28-B1C7-F1123D108CB6}" name="Publisher" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CE87AC8F-877E-46EB-9F20-7472C0C805D9}" name="Year" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{24662E41-987F-49BA-8D44-1207447D4B7A}" name="R" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{EE27B927-803C-4815-B690-9405FA1CB0F5}" name="F" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{42F8D125-F79F-4D66-9CC3-1D16606177CE}" name="M" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{70F27EF9-1E8E-40C2-B515-EA7702182D0F}" name="Total" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{8C0E66AA-D763-4DEF-969B-BEA3559F7436}" name="Game" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1C2ACE33-FC6D-41C1-868C-D5496880081F}" name="Developer" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{DDEB4425-2220-4C28-B1C7-F1123D108CB6}" name="Publisher" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CE87AC8F-877E-46EB-9F20-7472C0C805D9}" name="Year" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{24662E41-987F-49BA-8D44-1207447D4B7A}" name="R" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{EE27B927-803C-4815-B690-9405FA1CB0F5}" name="F" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{42F8D125-F79F-4D66-9CC3-1D16606177CE}" name="M" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{70F27EF9-1E8E-40C2-B515-EA7702182D0F}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>COUNTA(F3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1938,15 +2318,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F12148FA-4234-4F70-A180-C3E6796767CB}" name="Table13" displayName="Table13" ref="B2:D130" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F12148FA-4234-4F70-A180-C3E6796767CB}" name="Table13" displayName="Table13" ref="B2:D130" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B2:D130" xr:uid="{F12148FA-4234-4F70-A180-C3E6796767CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D130">
     <sortCondition ref="D2:D130"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D9D4E05F-ADE8-4CC5-B7BC-822D4604E901}" name="Game" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{49A3048E-EDA8-4053-8E48-6F58B26DCBFA}" name="Developer" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{066CBAA6-A3E0-4DFB-80E9-9F8113113415}" name="Year" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D9D4E05F-ADE8-4CC5-B7BC-822D4604E901}" name="Game" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{49A3048E-EDA8-4053-8E48-6F58B26DCBFA}" name="Developer" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{066CBAA6-A3E0-4DFB-80E9-9F8113113415}" name="Year" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2605,7 +2985,7 @@
       <c r="B20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4270,7 +4650,7 @@
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B227" s="18">
+      <c r="B227" s="17">
         <v>1066</v>
       </c>
       <c r="D227">
@@ -4429,64 +4809,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B7E06-CC6C-4941-9401-A77502A9A4AC}">
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="21"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4494,19 +4874,17 @@
       <c r="B3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>2001</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="20">
-        <f>COUNTA(F3:H3)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="F3" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" ref="I3:I66" si="0">COUNTA(F3:H3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4514,18 +4892,17 @@
       <c r="B4" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>2001</v>
       </c>
-      <c r="I4" s="27">
-        <f>COUNTA(F4:H4)</f>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4533,18 +4910,17 @@
       <c r="B5" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>2001</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I5" s="27">
-        <f>COUNTA(F5:H5)</f>
+      <c r="G5" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4552,18 +4928,17 @@
       <c r="B6" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>2001</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="27">
-        <f>COUNTA(F6:H6)</f>
+      <c r="G6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4571,18 +4946,17 @@
       <c r="B7" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>2001</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="27">
-        <f>COUNTA(F7:H7)</f>
+      <c r="G7" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4590,18 +4964,17 @@
       <c r="B8" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>2001</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="27">
-        <f>COUNTA(F8:H8)</f>
+      <c r="G8" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4609,18 +4982,17 @@
       <c r="B9" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>2002</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="20">
-        <f>COUNTA(F9:H9)</f>
+      <c r="H9" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4628,16 +5000,14 @@
       <c r="B10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>2002</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="20">
-        <f>COUNTA(F10:H10)</f>
+      <c r="F10" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4645,16 +5015,14 @@
       <c r="B11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>2002</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="20">
-        <f>COUNTA(F11:H11)</f>
+      <c r="F11" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4662,16 +5030,14 @@
       <c r="B12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>2002</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="20">
-        <f>COUNTA(F12:H12)</f>
+      <c r="F12" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4679,18 +5045,17 @@
       <c r="B13" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" t="s">
         <v>287</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>2002</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I13" s="27">
-        <f>COUNTA(F13:H13)</f>
+      <c r="G13" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4698,18 +5063,17 @@
       <c r="B14" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>2002</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" s="27">
-        <f>COUNTA(F14:H14)</f>
+      <c r="G14" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5081,17 @@
       <c r="B15" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>2002</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I15" s="27">
-        <f>COUNTA(F15:H15)</f>
+      <c r="G15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5099,17 @@
       <c r="B16" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" t="s">
         <v>293</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>2002</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="27">
-        <f>COUNTA(F16:H16)</f>
+      <c r="G16" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4755,18 +5117,17 @@
       <c r="B17" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>2002</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" s="27">
-        <f>COUNTA(F17:H17)</f>
+      <c r="G17" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4774,18 +5135,17 @@
       <c r="B18" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" t="s">
         <v>297</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>2002</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="27">
-        <f>COUNTA(F18:H18)</f>
+      <c r="G18" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4793,37 +5153,35 @@
       <c r="B19" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>2002</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="27">
-        <f>COUNTA(F19:H19)</f>
+      <c r="G19" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>2002</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="27">
-        <f>COUNTA(F20:H20)</f>
+      <c r="G20" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4831,18 +5189,17 @@
       <c r="B21" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" t="s">
         <v>302</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>2002</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I21" s="27">
-        <f>COUNTA(F21:H21)</f>
+      <c r="G21" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4850,21 +5207,20 @@
       <c r="B22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>2002</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" s="20">
-        <f>COUNTA(F22:H22)</f>
+      <c r="F22" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4872,18 +5228,17 @@
       <c r="B23" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>2003</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I23" s="20">
-        <f>COUNTA(F23:H23)</f>
+      <c r="H23" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4891,21 +5246,20 @@
       <c r="B24" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" t="s">
         <v>291</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>2003</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="20">
-        <f>COUNTA(F24:H24)</f>
+      <c r="F24" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4913,16 +5267,14 @@
       <c r="B25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>2003</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I25" s="20">
-        <f>COUNTA(F25:H25)</f>
+      <c r="F25" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4930,21 +5282,20 @@
       <c r="B26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>2003</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I26" s="20">
-        <f>COUNTA(F26:H26)</f>
+      <c r="F26" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4952,20 +5303,20 @@
       <c r="B27" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" t="s">
         <v>321</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>2003</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I27" s="27">
-        <f>COUNTA(F27:H27)</f>
+      <c r="G27" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4973,20 +5324,20 @@
       <c r="B28" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>2003</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I28" s="27">
-        <f>COUNTA(F28:H28)</f>
+      <c r="G28" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4994,18 +5345,17 @@
       <c r="B29" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" t="s">
         <v>328</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>2003</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="27">
-        <f>COUNTA(F29:H29)</f>
+      <c r="G29" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5013,18 +5363,17 @@
       <c r="B30" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" t="s">
         <v>330</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>2003</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" s="27">
-        <f>COUNTA(F30:H30)</f>
+      <c r="G30" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5381,17 @@
       <c r="B31" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>2003</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I31" s="27">
-        <f>COUNTA(F31:H31)</f>
+      <c r="G31" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5399,17 @@
       <c r="B32" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>2003</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I32" s="27">
-        <f>COUNTA(F32:H32)</f>
+      <c r="G32" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5070,18 +5417,17 @@
       <c r="B33" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>2003</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I33" s="27">
-        <f>COUNTA(F33:H33)</f>
+      <c r="G33" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5089,20 +5435,20 @@
       <c r="B34" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" t="s">
         <v>338</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" t="s">
         <v>323</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>2003</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I34" s="27">
-        <f>COUNTA(F34:H34)</f>
+      <c r="G34" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5110,20 +5456,20 @@
       <c r="B35" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" t="s">
         <v>340</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" t="s">
         <v>341</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>2003</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I35" s="27">
-        <f>COUNTA(F35:H35)</f>
+      <c r="G35" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5131,16 +5477,14 @@
       <c r="B36" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>2003</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I36" s="20">
-        <f>COUNTA(F36:H36)</f>
+      <c r="F36" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5148,16 +5492,14 @@
       <c r="B37" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>2003</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="20">
-        <f>COUNTA(F37:H37)</f>
+      <c r="F37" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5165,16 +5507,14 @@
       <c r="B38" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>2003</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I38" s="20">
-        <f>COUNTA(F38:H38)</f>
+      <c r="F38" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5182,15 +5522,14 @@
       <c r="B39" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>2003</v>
       </c>
-      <c r="I39" s="27">
-        <f>COUNTA(F39:H39)</f>
+      <c r="I39" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5198,16 +5537,14 @@
       <c r="B40" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>2003</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I40" s="20">
-        <f>COUNTA(F40:H40)</f>
+      <c r="F40" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5215,23 +5552,23 @@
       <c r="B41" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" t="s">
         <v>318</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" t="s">
         <v>323</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="19">
         <v>2004</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I41" s="20">
-        <f>COUNTA(F41:H41)</f>
+      <c r="F41" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5239,18 +5576,17 @@
       <c r="B42" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" t="s">
         <v>264</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>2004</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I42" s="20">
-        <f>COUNTA(F42:H42)</f>
+      <c r="H42" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5258,18 +5594,17 @@
       <c r="B43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>2004</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I43" s="20">
-        <f>COUNTA(F43:H43)</f>
+      <c r="H43" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5277,21 +5612,20 @@
       <c r="B44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" t="s">
         <v>351</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>2004</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I44" s="20">
-        <f>COUNTA(F44:H44)</f>
+      <c r="F44" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I44" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5299,16 +5633,14 @@
       <c r="B45" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>2004</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" s="20">
-        <f>COUNTA(F45:H45)</f>
+      <c r="F45" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5316,15 +5648,14 @@
       <c r="B46" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" t="s">
         <v>241</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>2004</v>
       </c>
-      <c r="I46" s="27">
-        <f>COUNTA(F46:H46)</f>
+      <c r="I46" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5332,15 +5663,14 @@
       <c r="B47" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" t="s">
         <v>316</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>2004</v>
       </c>
-      <c r="I47" s="27">
-        <f>COUNTA(F47:H47)</f>
+      <c r="I47" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5348,16 +5678,14 @@
       <c r="B48" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>2004</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I48" s="20">
-        <f>COUNTA(F48:H48)</f>
+      <c r="F48" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5365,23 +5693,23 @@
       <c r="B49" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" t="s">
         <v>358</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" t="s">
         <v>359</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>2004</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="20">
-        <f>COUNTA(F49:H49)</f>
+      <c r="F49" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I49" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5389,20 +5717,20 @@
       <c r="B50" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" t="s">
         <v>349</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" t="s">
         <v>350</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>2004</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I50" s="27">
-        <f>COUNTA(F50:H50)</f>
+      <c r="G50" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I50" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5410,18 +5738,17 @@
       <c r="B51" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>2004</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="27">
-        <f>COUNTA(F51:H51)</f>
+      <c r="G51" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5429,18 +5756,17 @@
       <c r="B52" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" t="s">
         <v>355</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>2004</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="27">
-        <f>COUNTA(F52:H52)</f>
+      <c r="G52" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I52" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5448,18 +5774,17 @@
       <c r="B53" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" t="s">
         <v>357</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>2004</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I53" s="27">
-        <f>COUNTA(F53:H53)</f>
+      <c r="G53" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5467,20 +5792,20 @@
       <c r="B54" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" t="s">
         <v>361</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" t="s">
         <v>361</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>2004</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I54" s="27">
-        <f>COUNTA(F54:H54)</f>
+      <c r="G54" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5813,17 @@
       <c r="B55" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>2004</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I55" s="27">
-        <f>COUNTA(F55:H55)</f>
+      <c r="G55" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5507,18 +5831,17 @@
       <c r="B56" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" t="s">
         <v>365</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>2004</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I56" s="27">
-        <f>COUNTA(F56:H56)</f>
+      <c r="G56" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5526,18 +5849,17 @@
       <c r="B57" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" t="s">
         <v>367</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>2004</v>
       </c>
-      <c r="G57" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I57" s="27">
-        <f>COUNTA(F57:H57)</f>
+      <c r="G57" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I57" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5545,18 +5867,17 @@
       <c r="B58" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" t="s">
         <v>369</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>2004</v>
       </c>
-      <c r="G58" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I58" s="27">
-        <f>COUNTA(F58:H58)</f>
+      <c r="G58" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I58" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5564,18 +5885,17 @@
       <c r="B59" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" t="s">
         <v>371</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>2004</v>
       </c>
-      <c r="G59" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I59" s="27">
-        <f>COUNTA(F59:H59)</f>
+      <c r="G59" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I59" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5583,18 +5903,17 @@
       <c r="B60" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" t="s">
         <v>373</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>2004</v>
       </c>
-      <c r="G60" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I60" s="27">
-        <f>COUNTA(F60:H60)</f>
+      <c r="G60" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5602,20 +5921,20 @@
       <c r="B61" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" t="s">
         <v>375</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" t="s">
         <v>341</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>2004</v>
       </c>
-      <c r="G61" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I61" s="27">
-        <f>COUNTA(F61:H61)</f>
+      <c r="G61" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I61" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5623,23 +5942,23 @@
       <c r="B62" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" t="s">
         <v>319</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" t="s">
         <v>319</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <v>2004</v>
       </c>
-      <c r="F62" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I62" s="20">
-        <f>COUNTA(F62:H62)</f>
+      <c r="F62" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I62" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5647,23 +5966,23 @@
       <c r="B63" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" t="s">
         <v>376</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" t="s">
         <v>323</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="19">
         <v>2005</v>
       </c>
-      <c r="F63" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I63" s="20">
-        <f>COUNTA(F63:H63)</f>
+      <c r="F63" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I63" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5671,19 +5990,17 @@
       <c r="B64" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="20">
+      <c r="E64" s="19">
         <v>2005</v>
       </c>
-      <c r="F64" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I64" s="20">
-        <f>COUNTA(F64:H64)</f>
+      <c r="F64" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I64" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5691,20 +6008,20 @@
       <c r="B65" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" t="s">
         <v>380</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" t="s">
         <v>381</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="19">
         <v>2005</v>
       </c>
-      <c r="G65" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I65" s="27">
-        <f>COUNTA(F65:H65)</f>
+      <c r="G65" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5712,20 +6029,20 @@
       <c r="B66" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" t="s">
         <v>383</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" t="s">
         <v>384</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>2005</v>
       </c>
-      <c r="G66" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I66" s="27">
-        <f>COUNTA(F66:H66)</f>
+      <c r="G66" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5733,20 +6050,20 @@
       <c r="B67" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" t="s">
         <v>386</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" t="s">
         <v>387</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="19">
         <v>2005</v>
       </c>
-      <c r="G67" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I67" s="27">
-        <f>COUNTA(F67:H67)</f>
+      <c r="G67" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I67" s="19">
+        <f t="shared" ref="I67:I130" si="1">COUNTA(F67:H67)</f>
         <v>1</v>
       </c>
     </row>
@@ -5754,18 +6071,17 @@
       <c r="B68" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" t="s">
         <v>389</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="20">
+      <c r="E68" s="19">
         <v>2005</v>
       </c>
-      <c r="G68" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I68" s="27">
-        <f>COUNTA(F68:H68)</f>
+      <c r="G68" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5773,20 +6089,20 @@
       <c r="B69" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" t="s">
         <v>391</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" t="s">
         <v>392</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>2005</v>
       </c>
-      <c r="G69" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I69" s="27">
-        <f>COUNTA(F69:H69)</f>
+      <c r="G69" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5794,18 +6110,17 @@
       <c r="B70" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" t="s">
         <v>394</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>2005</v>
       </c>
-      <c r="G70" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="27">
-        <f>COUNTA(F70:H70)</f>
+      <c r="G70" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5813,20 +6128,20 @@
       <c r="B71" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" t="s">
         <v>396</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" t="s">
         <v>381</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>2005</v>
       </c>
-      <c r="G71" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I71" s="27">
-        <f>COUNTA(F71:H71)</f>
+      <c r="G71" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I71" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5834,18 +6149,17 @@
       <c r="B72" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" t="s">
         <v>398</v>
       </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="20">
+      <c r="E72" s="19">
         <v>2005</v>
       </c>
-      <c r="G72" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I72" s="27">
-        <f>COUNTA(F72:H72)</f>
+      <c r="G72" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5853,23 +6167,23 @@
       <c r="B73" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" t="s">
         <v>377</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" t="s">
         <v>378</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="19">
         <v>2005</v>
       </c>
-      <c r="F73" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I73" s="20">
-        <f>COUNTA(F73:H73)</f>
+      <c r="F73" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I73" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -5877,16 +6191,14 @@
       <c r="B74" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="20">
+      <c r="E74" s="19">
         <v>2005</v>
       </c>
-      <c r="F74" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I74" s="20">
-        <f>COUNTA(F74:H74)</f>
+      <c r="F74" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I74" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5894,16 +6206,14 @@
       <c r="B75" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <v>2005</v>
       </c>
-      <c r="F75" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I75" s="20">
-        <f>COUNTA(F75:H75)</f>
+      <c r="F75" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5911,16 +6221,14 @@
       <c r="B76" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="20">
+      <c r="E76" s="19">
         <v>2006</v>
       </c>
-      <c r="F76" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I76" s="20">
-        <f>COUNTA(F76:H76)</f>
+      <c r="F76" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I76" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5928,23 +6236,23 @@
       <c r="B77" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" t="s">
         <v>401</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" t="s">
         <v>402</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="19">
         <v>2006</v>
       </c>
-      <c r="F77" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I77" s="20">
-        <f>COUNTA(F77:H77)</f>
+      <c r="F77" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I77" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -5952,16 +6260,14 @@
       <c r="B78" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="20">
+      <c r="E78" s="19">
         <v>2006</v>
       </c>
-      <c r="F78" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I78" s="20">
-        <f>COUNTA(F78:H78)</f>
+      <c r="F78" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I78" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5969,16 +6275,14 @@
       <c r="B79" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="20">
+      <c r="E79" s="19">
         <v>2006</v>
       </c>
-      <c r="F79" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I79" s="20">
-        <f>COUNTA(F79:H79)</f>
+      <c r="F79" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I79" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5986,16 +6290,14 @@
       <c r="B80" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="20">
+      <c r="E80" s="19">
         <v>2006</v>
       </c>
-      <c r="F80" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I80" s="20">
-        <f>COUNTA(F80:H80)</f>
+      <c r="F80" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I80" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6003,21 +6305,20 @@
       <c r="B81" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" t="s">
         <v>238</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="20">
+      <c r="E81" s="19">
         <v>2006</v>
       </c>
-      <c r="F81" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I81" s="20">
-        <f>COUNTA(F81:H81)</f>
+      <c r="F81" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I81" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -6025,20 +6326,20 @@
       <c r="B82" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" t="s">
         <v>405</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" t="s">
         <v>405</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="19">
         <v>2006</v>
       </c>
-      <c r="G82" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I82" s="27">
-        <f>COUNTA(F82:H82)</f>
+      <c r="G82" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I82" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6046,20 +6347,20 @@
       <c r="B83" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" t="s">
         <v>407</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" t="s">
         <v>408</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="19">
         <v>2006</v>
       </c>
-      <c r="G83" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I83" s="27">
-        <f>COUNTA(F83:H83)</f>
+      <c r="G83" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I83" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6067,20 +6368,20 @@
       <c r="B84" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" t="s">
         <v>410</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" t="s">
         <v>411</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="19">
         <v>2006</v>
       </c>
-      <c r="G84" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I84" s="27">
-        <f>COUNTA(F84:H84)</f>
+      <c r="G84" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I84" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6088,20 +6389,20 @@
       <c r="B85" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" t="s">
         <v>413</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" t="s">
         <v>381</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="19">
         <v>2006</v>
       </c>
-      <c r="G85" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I85" s="27">
-        <f>COUNTA(F85:H85)</f>
+      <c r="G85" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6109,20 +6410,20 @@
       <c r="B86" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" t="s">
         <v>387</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" t="s">
         <v>387</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="19">
         <v>2006</v>
       </c>
-      <c r="G86" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I86" s="27">
-        <f>COUNTA(F86:H86)</f>
+      <c r="G86" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I86" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6130,20 +6431,20 @@
       <c r="B87" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" t="s">
         <v>416</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" t="s">
         <v>417</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <v>2006</v>
       </c>
-      <c r="G87" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I87" s="27">
-        <f>COUNTA(F87:H87)</f>
+      <c r="G87" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I87" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6151,20 +6452,20 @@
       <c r="B88" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" t="s">
         <v>420</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="19">
         <v>2006</v>
       </c>
-      <c r="G88" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I88" s="27">
-        <f>COUNTA(F88:H88)</f>
+      <c r="G88" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I88" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6172,18 +6473,17 @@
       <c r="B89" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" t="s">
         <v>422</v>
       </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="20">
+      <c r="E89" s="19">
         <v>2006</v>
       </c>
-      <c r="G89" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I89" s="27">
-        <f>COUNTA(F89:H89)</f>
+      <c r="G89" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I89" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6191,18 +6491,17 @@
       <c r="B90" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="20">
+      <c r="E90" s="19">
         <v>2006</v>
       </c>
-      <c r="G90" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I90" s="27">
-        <f>COUNTA(F90:H90)</f>
+      <c r="G90" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I90" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6210,18 +6509,17 @@
       <c r="B91" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" t="s">
         <v>426</v>
       </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>2006</v>
       </c>
-      <c r="G91" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I91" s="27">
-        <f>COUNTA(F91:H91)</f>
+      <c r="G91" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I91" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6229,18 +6527,17 @@
       <c r="B92" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" t="s">
         <v>428</v>
       </c>
-      <c r="D92" s="32"/>
-      <c r="E92" s="20">
+      <c r="E92" s="19">
         <v>2006</v>
       </c>
-      <c r="G92" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I92" s="27">
-        <f>COUNTA(F92:H92)</f>
+      <c r="G92" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I92" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6248,20 +6545,20 @@
       <c r="B93" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" t="s">
         <v>416</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" t="s">
         <v>417</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <v>2006</v>
       </c>
-      <c r="G93" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I93" s="27">
-        <f>COUNTA(F93:H93)</f>
+      <c r="G93" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6269,18 +6566,17 @@
       <c r="B94" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" t="s">
         <v>410</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="20">
+      <c r="E94" s="19">
         <v>2006</v>
       </c>
-      <c r="G94" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I94" s="27">
-        <f>COUNTA(F94:H94)</f>
+      <c r="G94" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I94" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6288,18 +6584,17 @@
       <c r="B95" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" t="s">
         <v>403</v>
       </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="20">
+      <c r="E95" s="19">
         <v>2006</v>
       </c>
-      <c r="G95" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I95" s="27">
-        <f>COUNTA(F95:H95)</f>
+      <c r="G95" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I95" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6307,20 +6602,20 @@
       <c r="B96" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C96" t="s">
         <v>432</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" t="s">
         <v>323</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="19">
         <v>2006</v>
       </c>
-      <c r="G96" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I96" s="27">
-        <f>COUNTA(F96:H96)</f>
+      <c r="G96" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I96" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6623,17 @@
       <c r="B97" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="C97" t="s">
         <v>434</v>
       </c>
-      <c r="D97" s="32"/>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>2006</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I97" s="27">
-        <f>COUNTA(F97:H97)</f>
+      <c r="G97" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I97" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6347,20 +6641,20 @@
       <c r="B98" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="C98" t="s">
         <v>443</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" t="s">
         <v>381</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="19">
         <v>2006</v>
       </c>
-      <c r="G98" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I98" s="27">
-        <f>COUNTA(F98:H98)</f>
+      <c r="G98" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I98" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6368,18 +6662,17 @@
       <c r="B99" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C99" t="s">
         <v>436</v>
       </c>
-      <c r="D99" s="32"/>
-      <c r="E99" s="20">
+      <c r="E99" s="19">
         <v>2006</v>
       </c>
-      <c r="G99" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I99" s="27">
-        <f>COUNTA(F99:H99)</f>
+      <c r="G99" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6387,20 +6680,20 @@
       <c r="B100" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" t="s">
         <v>438</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" t="s">
         <v>420</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="19">
         <v>2006</v>
       </c>
-      <c r="G100" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I100" s="27">
-        <f>COUNTA(F100:H100)</f>
+      <c r="G100" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I100" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6408,20 +6701,20 @@
       <c r="B101" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" t="s">
         <v>439</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" t="s">
         <v>417</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="19">
         <v>2006</v>
       </c>
-      <c r="G101" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I101" s="27">
-        <f>COUNTA(F101:H101)</f>
+      <c r="G101" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I101" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6429,18 +6722,17 @@
       <c r="B102" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" t="s">
         <v>413</v>
       </c>
-      <c r="D102" s="32"/>
-      <c r="E102" s="20">
+      <c r="E102" s="19">
         <v>2006</v>
       </c>
-      <c r="G102" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I102" s="27">
-        <f>COUNTA(F102:H102)</f>
+      <c r="G102" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I102" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6448,20 +6740,20 @@
       <c r="B103" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" t="s">
         <v>441</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" t="s">
         <v>417</v>
       </c>
-      <c r="E103" s="20">
+      <c r="E103" s="19">
         <v>2006</v>
       </c>
-      <c r="G103" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I103" s="27">
-        <f>COUNTA(F103:H103)</f>
+      <c r="G103" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I103" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6469,16 +6761,14 @@
       <c r="B104" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="20">
+      <c r="E104" s="19">
         <v>2006</v>
       </c>
-      <c r="G104" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I104" s="27">
-        <f>COUNTA(F104:H104)</f>
+      <c r="G104" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I104" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +6776,17 @@
       <c r="B105" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" t="s">
         <v>445</v>
       </c>
-      <c r="D105" s="32"/>
-      <c r="E105" s="20">
+      <c r="E105" s="19">
         <v>2006</v>
       </c>
-      <c r="G105" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I105" s="27">
-        <f>COUNTA(F105:H105)</f>
+      <c r="G105" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I105" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6505,16 +6794,14 @@
       <c r="B106" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="20">
+      <c r="E106" s="19">
         <v>2006</v>
       </c>
-      <c r="F106" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I106" s="20">
-        <f>COUNTA(F106:H106)</f>
+      <c r="F106" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I106" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6522,23 +6809,23 @@
       <c r="B107" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" t="s">
         <v>403</v>
       </c>
-      <c r="D107" s="32" t="s">
+      <c r="D107" t="s">
         <v>323</v>
       </c>
-      <c r="E107" s="20">
+      <c r="E107" s="19">
         <v>2006</v>
       </c>
-      <c r="F107" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I107" s="20">
-        <f>COUNTA(F107:H107)</f>
+      <c r="F107" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I107" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -6546,23 +6833,23 @@
       <c r="B108" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" t="s">
         <v>399</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D108" t="s">
         <v>400</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="19">
         <v>2006</v>
       </c>
-      <c r="F108" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I108" s="20">
-        <f>COUNTA(F108:H108)</f>
+      <c r="F108" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I108" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -6570,60 +6857,49 @@
       <c r="B109" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" t="s">
         <v>241</v>
       </c>
-      <c r="D109" s="32"/>
-      <c r="E109" s="20">
+      <c r="E109" s="19">
         <v>2006</v>
       </c>
-      <c r="F109" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I109" s="20">
-        <f>COUNTA(F109:H109)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F109" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I109" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="D110" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="E110" s="20">
+        <v>194</v>
+      </c>
+      <c r="E110" s="19">
         <v>2008</v>
       </c>
-      <c r="F110" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I110" s="20">
+      <c r="F110" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I110" s="19">
         <f>COUNTA(F110:H110)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C111" t="s">
         <v>416</v>
       </c>
-      <c r="D111" s="32"/>
-      <c r="E111" s="20">
+      <c r="E111" s="19">
         <v>2007</v>
       </c>
-      <c r="G111" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I111" s="27">
+      <c r="G111" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I111" s="19">
         <f>COUNTA(F111:H111)</f>
         <v>1</v>
       </c>
@@ -6632,17 +6908,16 @@
       <c r="B112" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" t="s">
         <v>454</v>
       </c>
-      <c r="D112" s="32"/>
-      <c r="E112" s="20">
+      <c r="E112" s="19">
         <v>2007</v>
       </c>
-      <c r="G112" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I112" s="27">
+      <c r="G112" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I112" s="19">
         <f>COUNTA(F112:H112)</f>
         <v>1</v>
       </c>
@@ -6651,19 +6926,19 @@
       <c r="B113" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="32" t="s">
+      <c r="D113" t="s">
         <v>457</v>
       </c>
-      <c r="E113" s="20">
+      <c r="E113" s="19">
         <v>2007</v>
       </c>
-      <c r="G113" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I113" s="27">
+      <c r="G113" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I113" s="19">
         <f>COUNTA(F113:H113)</f>
         <v>1</v>
       </c>
@@ -6672,17 +6947,16 @@
       <c r="B114" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" t="s">
         <v>407</v>
       </c>
-      <c r="D114" s="32"/>
-      <c r="E114" s="20">
+      <c r="E114" s="19">
         <v>2007</v>
       </c>
-      <c r="G114" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I114" s="27">
+      <c r="G114" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I114" s="19">
         <f>COUNTA(F114:H114)</f>
         <v>1</v>
       </c>
@@ -6691,19 +6965,19 @@
       <c r="B115" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" t="s">
         <v>460</v>
       </c>
-      <c r="D115" s="32" t="s">
+      <c r="D115" t="s">
         <v>461</v>
       </c>
-      <c r="E115" s="20">
+      <c r="E115" s="19">
         <v>2007</v>
       </c>
-      <c r="G115" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I115" s="27">
+      <c r="G115" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I115" s="19">
         <f>COUNTA(F115:H115)</f>
         <v>1</v>
       </c>
@@ -6712,17 +6986,16 @@
       <c r="B116" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C116" t="s">
         <v>463</v>
       </c>
-      <c r="D116" s="32"/>
-      <c r="E116" s="20">
+      <c r="E116" s="19">
         <v>2007</v>
       </c>
-      <c r="G116" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I116" s="27">
+      <c r="G116" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I116" s="19">
         <f>COUNTA(F116:H116)</f>
         <v>1</v>
       </c>
@@ -6731,19 +7004,19 @@
       <c r="B117" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="C117" t="s">
         <v>451</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" t="s">
         <v>417</v>
       </c>
-      <c r="E117" s="20">
+      <c r="E117" s="19">
         <v>2007</v>
       </c>
-      <c r="G117" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I117" s="27">
+      <c r="G117" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I117" s="19">
         <f>COUNTA(F117:H117)</f>
         <v>1</v>
       </c>
@@ -6752,19 +7025,19 @@
       <c r="B118" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" t="s">
         <v>466</v>
       </c>
-      <c r="D118" s="32" t="s">
+      <c r="D118" t="s">
         <v>469</v>
       </c>
-      <c r="E118" s="20">
+      <c r="E118" s="19">
         <v>2007</v>
       </c>
-      <c r="G118" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I118" s="27">
+      <c r="G118" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I118" s="19">
         <f>COUNTA(F118:H118)</f>
         <v>1</v>
       </c>
@@ -6773,19 +7046,19 @@
       <c r="B119" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C119" t="s">
         <v>468</v>
       </c>
-      <c r="D119" s="32" t="s">
+      <c r="D119" t="s">
         <v>381</v>
       </c>
-      <c r="E119" s="20">
+      <c r="E119" s="19">
         <v>2007</v>
       </c>
-      <c r="G119" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I119" s="27">
+      <c r="G119" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I119" s="19">
         <f>COUNTA(F119:H119)</f>
         <v>1</v>
       </c>
@@ -6794,19 +7067,19 @@
       <c r="B120" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" t="s">
         <v>450</v>
       </c>
-      <c r="D120" s="32" t="s">
+      <c r="D120" t="s">
         <v>450</v>
       </c>
-      <c r="E120" s="20">
+      <c r="E120" s="19">
         <v>2007</v>
       </c>
-      <c r="G120" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I120" s="27">
+      <c r="G120" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I120" s="19">
         <f>COUNTA(F120:H120)</f>
         <v>1</v>
       </c>
@@ -6815,19 +7088,19 @@
       <c r="B121" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="C121" t="s">
         <v>472</v>
       </c>
-      <c r="D121" s="32" t="s">
+      <c r="D121" t="s">
         <v>417</v>
       </c>
-      <c r="E121" s="20">
+      <c r="E121" s="19">
         <v>2007</v>
       </c>
-      <c r="G121" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I121" s="27">
+      <c r="G121" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I121" s="19">
         <f>COUNTA(F121:H121)</f>
         <v>1</v>
       </c>
@@ -6836,19 +7109,19 @@
       <c r="B122" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="C122" t="s">
         <v>473</v>
       </c>
-      <c r="D122" s="32" t="s">
+      <c r="D122" t="s">
         <v>323</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E122" s="19">
         <v>2007</v>
       </c>
-      <c r="G122" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I122" s="27">
+      <c r="G122" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I122" s="19">
         <f>COUNTA(F122:H122)</f>
         <v>1</v>
       </c>
@@ -6857,17 +7130,16 @@
       <c r="B123" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="C123" t="s">
         <v>434</v>
       </c>
-      <c r="D123" s="32"/>
-      <c r="E123" s="20">
+      <c r="E123" s="19">
         <v>2007</v>
       </c>
-      <c r="G123" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I123" s="27">
+      <c r="G123" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I123" s="19">
         <f>COUNTA(F123:H123)</f>
         <v>1</v>
       </c>
@@ -6876,17 +7148,16 @@
       <c r="B124" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C124" t="s">
         <v>319</v>
       </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="20">
+      <c r="E124" s="19">
         <v>2007</v>
       </c>
-      <c r="G124" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I124" s="27">
+      <c r="G124" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I124" s="19">
         <f>COUNTA(F124:H124)</f>
         <v>1</v>
       </c>
@@ -6895,19 +7166,19 @@
       <c r="B125" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" t="s">
         <v>477</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" t="s">
         <v>478</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="19">
         <v>2007</v>
       </c>
-      <c r="G125" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I125" s="27">
+      <c r="G125" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I125" s="19">
         <f>COUNTA(F125:H125)</f>
         <v>1</v>
       </c>
@@ -6916,19 +7187,19 @@
       <c r="B126" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C126" t="s">
         <v>480</v>
       </c>
-      <c r="D126" s="32" t="s">
+      <c r="D126" t="s">
         <v>450</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="19">
         <v>2007</v>
       </c>
-      <c r="G126" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I126" s="27">
+      <c r="G126" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I126" s="19">
         <f>COUNTA(F126:H126)</f>
         <v>1</v>
       </c>
@@ -6937,17 +7208,16 @@
       <c r="B127" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" t="s">
         <v>482</v>
       </c>
-      <c r="D127" s="32"/>
-      <c r="E127" s="20">
+      <c r="E127" s="19">
         <v>2007</v>
       </c>
-      <c r="G127" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I127" s="27">
+      <c r="G127" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I127" s="19">
         <f>COUNTA(F127:H127)</f>
         <v>1</v>
       </c>
@@ -6956,17 +7226,16 @@
       <c r="B128" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" t="s">
         <v>484</v>
       </c>
-      <c r="D128" s="32"/>
-      <c r="E128" s="20">
+      <c r="E128" s="19">
         <v>2007</v>
       </c>
-      <c r="G128" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I128" s="27">
+      <c r="G128" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I128" s="19">
         <f>COUNTA(F128:H128)</f>
         <v>1</v>
       </c>
@@ -6975,17 +7244,16 @@
       <c r="B129" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="C129" t="s">
         <v>486</v>
       </c>
-      <c r="D129" s="32"/>
-      <c r="E129" s="20">
+      <c r="E129" s="19">
         <v>2007</v>
       </c>
-      <c r="G129" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I129" s="27">
+      <c r="G129" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I129" s="19">
         <f>COUNTA(F129:H129)</f>
         <v>1</v>
       </c>
@@ -6994,19 +7262,19 @@
       <c r="B130" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C130" s="32" t="s">
+      <c r="C130" t="s">
         <v>488</v>
       </c>
-      <c r="D130" s="32" t="s">
+      <c r="D130" t="s">
         <v>417</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="19">
         <v>2007</v>
       </c>
-      <c r="G130" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I130" s="27">
+      <c r="G130" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I130" s="19">
         <f>COUNTA(F130:H130)</f>
         <v>1</v>
       </c>
@@ -7015,19 +7283,19 @@
       <c r="B131" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C131" s="32" t="s">
+      <c r="C131" t="s">
         <v>490</v>
       </c>
-      <c r="D131" s="32" t="s">
+      <c r="D131" t="s">
         <v>417</v>
       </c>
-      <c r="E131" s="20">
+      <c r="E131" s="19">
         <v>2007</v>
       </c>
-      <c r="G131" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I131" s="27">
+      <c r="G131" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I131" s="19">
         <f>COUNTA(F131:H131)</f>
         <v>1</v>
       </c>
@@ -7036,19 +7304,19 @@
       <c r="B132" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="C132" s="32" t="s">
+      <c r="C132" t="s">
         <v>492</v>
       </c>
-      <c r="D132" s="32" t="s">
+      <c r="D132" t="s">
         <v>493</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="19">
         <v>2007</v>
       </c>
-      <c r="G132" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I132" s="27">
+      <c r="G132" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I132" s="19">
         <f>COUNTA(F132:H132)</f>
         <v>1</v>
       </c>
@@ -7057,19 +7325,19 @@
       <c r="B133" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="C133" s="32" t="s">
+      <c r="C133" t="s">
         <v>495</v>
       </c>
-      <c r="D133" s="32" t="s">
+      <c r="D133" t="s">
         <v>496</v>
       </c>
-      <c r="E133" s="20">
+      <c r="E133" s="19">
         <v>2007</v>
       </c>
-      <c r="G133" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I133" s="27">
+      <c r="G133" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I133" s="19">
         <f>COUNTA(F133:H133)</f>
         <v>1</v>
       </c>
@@ -7078,15 +7346,13 @@
       <c r="B134" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="20">
+      <c r="E134" s="19">
         <v>2007</v>
       </c>
-      <c r="F134" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I134" s="20">
+      <c r="F134" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I134" s="19">
         <f>COUNTA(F134:H134)</f>
         <v>1</v>
       </c>
@@ -7095,15 +7361,13 @@
       <c r="B135" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="20">
+      <c r="E135" s="19">
         <v>2007</v>
       </c>
-      <c r="F135" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I135" s="20">
+      <c r="F135" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I135" s="19">
         <f>COUNTA(F135:H135)</f>
         <v>1</v>
       </c>
@@ -7112,15 +7376,13 @@
       <c r="B136" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="20">
+      <c r="E136" s="19">
         <v>2007</v>
       </c>
-      <c r="F136" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I136" s="20">
+      <c r="F136" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I136" s="19">
         <f>COUNTA(F136:H136)</f>
         <v>1</v>
       </c>
@@ -7129,22 +7391,22 @@
       <c r="B137" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="C137" t="s">
         <v>447</v>
       </c>
-      <c r="D137" s="32" t="s">
+      <c r="D137" t="s">
         <v>417</v>
       </c>
-      <c r="E137" s="20">
+      <c r="E137" s="19">
         <v>2007</v>
       </c>
-      <c r="F137" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G137" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I137" s="20">
+      <c r="F137" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I137" s="19">
         <f>COUNTA(F137:H137)</f>
         <v>2</v>
       </c>
@@ -7153,22 +7415,22 @@
       <c r="B138" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="C138" t="s">
         <v>451</v>
       </c>
-      <c r="D138" s="32" t="s">
+      <c r="D138" t="s">
         <v>417</v>
       </c>
-      <c r="E138" s="20">
+      <c r="E138" s="19">
         <v>2007</v>
       </c>
-      <c r="F138" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I138" s="20">
+      <c r="F138" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I138" s="19">
         <f>COUNTA(F138:H138)</f>
         <v>2</v>
       </c>
@@ -7177,22 +7439,22 @@
       <c r="B139" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C139" s="32" t="s">
+      <c r="C139" t="s">
         <v>417</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" t="s">
         <v>417</v>
       </c>
-      <c r="E139" s="20">
+      <c r="E139" s="19">
         <v>2007</v>
       </c>
-      <c r="F139" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I139" s="20">
+      <c r="F139" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I139" s="19">
         <f>COUNTA(F139:H139)</f>
         <v>2</v>
       </c>
@@ -7201,1209 +7463,2508 @@
       <c r="B140" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C140" t="s">
         <v>448</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D140" t="s">
         <v>323</v>
       </c>
-      <c r="E140" s="20">
+      <c r="E140" s="19">
         <v>2007</v>
       </c>
-      <c r="F140" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G140" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I140" s="20">
+      <c r="F140" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I140" s="19">
         <f>COUNTA(F140:H140)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D141" s="32"/>
-      <c r="E141" s="20">
+        <v>506</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="E141" s="19">
         <v>2008</v>
       </c>
-      <c r="H141" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I141" s="20">
+      <c r="G141" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I141" s="30">
         <f>COUNTA(F141:H141)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D142" s="32"/>
-      <c r="E142" s="20">
+        <v>509</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E142" s="19">
         <v>2008</v>
       </c>
-      <c r="H142" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I142" s="20">
+      <c r="G142" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I142" s="30">
         <f>COUNTA(F142:H142)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="20">
+        <v>511</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D143" s="29"/>
+      <c r="E143" s="19">
         <v>2008</v>
       </c>
-      <c r="H143" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I143" s="20">
+      <c r="G143" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I143" s="30">
         <f>COUNTA(F143:H143)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="20">
+        <v>513</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E144" s="19">
         <v>2008</v>
       </c>
-      <c r="F144" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I144" s="20">
+      <c r="G144" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I144" s="30">
         <f>COUNTA(F144:H144)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="20">
+        <v>515</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="D145" s="29"/>
+      <c r="E145" s="19">
         <v>2008</v>
       </c>
-      <c r="F145" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I145" s="20">
+      <c r="G145" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I145" s="30">
         <f>COUNTA(F145:H145)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="20">
+        <v>517</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="D146" s="29"/>
+      <c r="E146" s="19">
         <v>2008</v>
       </c>
-      <c r="F146" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I146" s="20">
+      <c r="G146" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I146" s="30">
         <f>COUNTA(F146:H146)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="20">
+        <v>519</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="E147" s="19">
         <v>2008</v>
       </c>
-      <c r="F147" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I147" s="20">
+      <c r="G147" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I147" s="30">
         <f>COUNTA(F147:H147)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="20">
+        <v>521</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E148" s="19">
         <v>2008</v>
       </c>
-      <c r="F148" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I148" s="20">
+      <c r="G148" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I148" s="30">
         <f>COUNTA(F148:H148)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="20">
+        <v>522</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E149" s="19">
         <v>2008</v>
       </c>
-      <c r="F149" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I149" s="20">
+      <c r="G149" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I149" s="30">
         <f>COUNTA(F149:H149)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="20">
+        <v>524</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="19">
         <v>2008</v>
       </c>
-      <c r="F150" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I150" s="20">
+      <c r="G150" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I150" s="30">
         <f>COUNTA(F150:H150)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="20">
+        <v>526</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E151" s="19">
         <v>2008</v>
       </c>
-      <c r="F151" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I151" s="20">
+      <c r="G151" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I151" s="30">
         <f>COUNTA(F151:H151)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="20">
+        <v>528</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E152" s="19">
         <v>2008</v>
       </c>
-      <c r="F152" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I152" s="20">
+      <c r="G152" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I152" s="30">
         <f>COUNTA(F152:H152)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="20">
+        <v>530</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D153" s="29"/>
+      <c r="E153" s="19">
         <v>2008</v>
       </c>
-      <c r="F153" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I153" s="20">
+      <c r="G153" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I153" s="30">
         <f>COUNTA(F153:H153)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="20">
+        <v>532</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D154" s="29"/>
+      <c r="E154" s="19">
         <v>2008</v>
       </c>
-      <c r="F154" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I154" s="20">
+      <c r="G154" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I154" s="30">
         <f>COUNTA(F154:H154)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="20">
+        <v>534</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="E155" s="19">
         <v>2008</v>
       </c>
-      <c r="F155" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I155" s="20">
+      <c r="G155" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I155" s="30">
         <f>COUNTA(F155:H155)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="20">
+        <v>536</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E156" s="19">
         <v>2008</v>
       </c>
-      <c r="F156" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I156" s="20">
+      <c r="G156" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I156" s="30">
         <f>COUNTA(F156:H156)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="20">
+        <v>538</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E157" s="19">
         <v>2008</v>
       </c>
-      <c r="F157" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I157" s="20">
+      <c r="G157" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I157" s="30">
         <f>COUNTA(F157:H157)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="20">
+        <v>540</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E158" s="19">
         <v>2008</v>
       </c>
-      <c r="F158" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I158" s="20">
+      <c r="G158" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I158" s="30">
         <f>COUNTA(F158:H158)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="20">
+        <v>542</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E159" s="19">
         <v>2008</v>
       </c>
-      <c r="F159" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I159" s="20">
+      <c r="G159" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I159" s="30">
         <f>COUNTA(F159:H159)</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D160" s="32"/>
-      <c r="E160" s="20">
-        <v>2009</v>
-      </c>
-      <c r="H160" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I160" s="20">
+        <v>545</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E160" s="19">
+        <v>2008</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I160" s="30">
         <f>COUNTA(F160:H160)</f>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D161" s="32"/>
-      <c r="E161" s="20">
-        <v>2009</v>
-      </c>
-      <c r="H161" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I161" s="20">
+        <v>546</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E161" s="19">
+        <v>2008</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I161" s="30">
         <f>COUNTA(F161:H161)</f>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F162" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I162" s="20">
+        <v>195</v>
+      </c>
+      <c r="C162" t="s">
+        <v>498</v>
+      </c>
+      <c r="D162" t="s">
+        <v>450</v>
+      </c>
+      <c r="E162" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I162" s="19">
         <f>COUNTA(F162:H162)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F163" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I163" s="20">
+        <v>192</v>
+      </c>
+      <c r="C163" t="s">
+        <v>497</v>
+      </c>
+      <c r="D163" t="s">
+        <v>417</v>
+      </c>
+      <c r="E163" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I163" s="19">
         <f>COUNTA(F163:H163)</f>
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F164" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I164" s="20">
+        <v>196</v>
+      </c>
+      <c r="C164" t="s">
+        <v>416</v>
+      </c>
+      <c r="D164" t="s">
+        <v>417</v>
+      </c>
+      <c r="E164" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I164" s="19">
         <f>COUNTA(F164:H164)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F165" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I165" s="20">
+        <v>191</v>
+      </c>
+      <c r="C165" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" t="s">
+        <v>417</v>
+      </c>
+      <c r="E165" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F165" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I165" s="19">
         <f>COUNTA(F165:H165)</f>
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F166" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I166" s="20">
+        <v>153</v>
+      </c>
+      <c r="C166" t="s">
+        <v>449</v>
+      </c>
+      <c r="D166" t="s">
+        <v>450</v>
+      </c>
+      <c r="E166" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F166" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G166" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I166" s="19">
         <f>COUNTA(F166:H166)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F167" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I167" s="20">
+        <v>190</v>
+      </c>
+      <c r="C167" t="s">
+        <v>547</v>
+      </c>
+      <c r="D167" t="s">
+        <v>402</v>
+      </c>
+      <c r="E167" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G167" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I167" s="19">
         <f>COUNTA(F167:H167)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F168" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I168" s="20">
+        <v>184</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>323</v>
+      </c>
+      <c r="E168" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I168" s="19">
         <f>COUNTA(F168:H168)</f>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I169" s="20">
+        <v>197</v>
+      </c>
+      <c r="C169" t="s">
+        <v>500</v>
+      </c>
+      <c r="D169" t="s">
+        <v>323</v>
+      </c>
+      <c r="E169" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F169" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I169" s="19">
         <f>COUNTA(F169:H169)</f>
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F170" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I170" s="20">
+        <v>240</v>
+      </c>
+      <c r="C170" t="s">
+        <v>241</v>
+      </c>
+      <c r="E170" s="19">
+        <v>2008</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I170" s="19">
         <f>COUNTA(F170:H170)</f>
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F171" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I171" s="20">
+        <v>188</v>
+      </c>
+      <c r="C171" t="s">
+        <v>501</v>
+      </c>
+      <c r="D171" t="s">
+        <v>319</v>
+      </c>
+      <c r="E171" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F171" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G171" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I171" s="19">
         <f>COUNTA(F171:H171)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C172" s="32"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F172" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I172" s="20">
+        <v>189</v>
+      </c>
+      <c r="C172" t="s">
+        <v>502</v>
+      </c>
+      <c r="D172" t="s">
+        <v>417</v>
+      </c>
+      <c r="E172" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I172" s="19">
         <f>COUNTA(F172:H172)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F173" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I173" s="20">
+        <v>157</v>
+      </c>
+      <c r="C173" t="s">
+        <v>269</v>
+      </c>
+      <c r="E173" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F173" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G173" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I173" s="19">
         <f>COUNTA(F173:H173)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F174" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I174" s="20">
+        <v>193</v>
+      </c>
+      <c r="C174" t="s">
+        <v>503</v>
+      </c>
+      <c r="E174" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G174" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I174" s="19">
         <f>COUNTA(F174:H174)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F175" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I175" s="20">
+        <v>186</v>
+      </c>
+      <c r="C175" t="s">
+        <v>504</v>
+      </c>
+      <c r="E175" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F175" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I175" s="19">
         <f>COUNTA(F175:H175)</f>
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E176" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F176" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I176" s="19">
+        <f>COUNTA(F176:H176)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" t="s">
+        <v>267</v>
+      </c>
+      <c r="E177" s="19">
+        <v>2008</v>
+      </c>
+      <c r="G177" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I177" s="19">
+        <f>COUNTA(F177:H177)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" t="s">
+        <v>269</v>
+      </c>
+      <c r="E178" s="19">
+        <v>2008</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I178" s="19">
+        <f>COUNTA(F178:H178)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" t="s">
+        <v>505</v>
+      </c>
+      <c r="D179" t="s">
+        <v>402</v>
+      </c>
+      <c r="E179" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F179" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G179" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I179" s="19">
+        <f>COUNTA(F179:H179)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" t="s">
+        <v>548</v>
+      </c>
+      <c r="E180" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F180" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G180" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I180" s="19">
+        <f>COUNTA(F180:H180)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C181" t="s">
+        <v>243</v>
+      </c>
+      <c r="D181" t="s">
+        <v>402</v>
+      </c>
+      <c r="E181" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G181" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I181" s="19">
+        <f t="shared" ref="I181:I249" si="2">COUNTA(F181:H181)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C182" t="s">
+        <v>260</v>
+      </c>
+      <c r="E182" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G182" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I182" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="D183" s="29"/>
+      <c r="E183" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G183" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I183" s="30">
+        <f>COUNTA(F183:H183)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="D184" s="29"/>
+      <c r="E184" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G184" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I184" s="30">
+        <f>COUNTA(F184:H184)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E185" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G185" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I185" s="30">
+        <f>COUNTA(F185:H185)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E186" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G186" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I186" s="30">
+        <f>COUNTA(F186:H186)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E187" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G187" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I187" s="30">
+        <f>COUNTA(F187:H187)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D188" s="29"/>
+      <c r="E188" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F188" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G188" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I188" s="30">
+        <f>COUNTA(F188:H188)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E189" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G189" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I189" s="30">
+        <f>COUNTA(F189:H189)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E190" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G190" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I190" s="30">
+        <f>COUNTA(F190:H190)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E191" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G191" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I191" s="30">
+        <f>COUNTA(F191:H191)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D192" s="29"/>
+      <c r="E192" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G192" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I192" s="30">
+        <f>COUNTA(F192:H192)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E193" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G193" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I193" s="30">
+        <f>COUNTA(F193:H193)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E194" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G194" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I194" s="30">
+        <f>COUNTA(F194:H194)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E195" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G195" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I195" s="30">
+        <f>COUNTA(F195:H195)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E196" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G196" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I196" s="30">
+        <f>COUNTA(F196:H196)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E197" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G197" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I197" s="30">
+        <f>COUNTA(F197:H197)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E198" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G198" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I198" s="30">
+        <f>COUNTA(F198:H198)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="D199" s="29"/>
+      <c r="E199" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G199" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I199" s="30">
+        <f>COUNTA(F199:H199)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D200" s="29"/>
+      <c r="E200" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G200" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I200" s="30">
+        <f>COUNTA(F200:H200)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E201" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G201" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I201" s="30">
+        <f>COUNTA(F201:H201)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E202" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G202" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I202" s="30">
+        <f>COUNTA(F202:H202)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E203" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G203" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I203" s="30">
+        <f>COUNTA(F203:H203)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204" t="s">
+        <v>549</v>
+      </c>
+      <c r="E204" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F204" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G204" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I204" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C205" t="s">
+        <v>591</v>
+      </c>
+      <c r="E205" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F205" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G205" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I205" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E206" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F206" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I206" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C207" t="s">
+        <v>550</v>
+      </c>
+      <c r="D207" t="s">
+        <v>417</v>
+      </c>
+      <c r="E207" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F207" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G207" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I207" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208" t="s">
+        <v>551</v>
+      </c>
+      <c r="D208" t="s">
+        <v>402</v>
+      </c>
+      <c r="E208" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F208" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I208" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E209" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F209" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I209" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" t="s">
+        <v>592</v>
+      </c>
+      <c r="D210" t="s">
+        <v>592</v>
+      </c>
+      <c r="E210" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F210" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G210" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I210" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C211" t="s">
+        <v>552</v>
+      </c>
+      <c r="D211" t="s">
+        <v>553</v>
+      </c>
+      <c r="E211" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F211" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G211" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I211" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" t="s">
+        <v>586</v>
+      </c>
+      <c r="D212" t="s">
+        <v>323</v>
+      </c>
+      <c r="E212" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F212" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G212" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I212" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E213" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F213" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I213" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E214" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F214" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I214" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C215" t="s">
+        <v>241</v>
+      </c>
+      <c r="E215" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F215" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I215" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C216" t="s">
+        <v>554</v>
+      </c>
+      <c r="D216" t="s">
+        <v>555</v>
+      </c>
+      <c r="E216" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F216" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G216" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I216" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E217" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F217" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I217" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C176" s="32" t="s">
+      <c r="C218" t="s">
         <v>241</v>
       </c>
-      <c r="D176" s="32"/>
-      <c r="E176" s="20">
+      <c r="D218" t="s">
+        <v>323</v>
+      </c>
+      <c r="E218" s="19">
         <v>2009</v>
       </c>
-      <c r="F176" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I176" s="20">
-        <f>COUNTA(F176:H176)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="15" t="s">
+      <c r="F218" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G218" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I218" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C177" s="32"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="20">
+      <c r="C219" t="s">
+        <v>593</v>
+      </c>
+      <c r="D219" t="s">
+        <v>417</v>
+      </c>
+      <c r="E219" s="19">
         <v>2009</v>
       </c>
-      <c r="F177" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I177" s="20">
-        <f>COUNTA(F177:H177)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="15" t="s">
+      <c r="F219" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G219" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I219" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="20">
+      <c r="C220" t="s">
+        <v>417</v>
+      </c>
+      <c r="D220" t="s">
+        <v>417</v>
+      </c>
+      <c r="E220" s="19">
         <v>2009</v>
       </c>
-      <c r="F178" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I178" s="20">
-        <f>COUNTA(F178:H178)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="15" t="s">
+      <c r="F220" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G220" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I220" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C179" s="32"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="20">
+      <c r="C221" t="s">
+        <v>594</v>
+      </c>
+      <c r="E221" s="19">
         <v>2009</v>
       </c>
-      <c r="F179" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I179" s="20">
-        <f>COUNTA(F179:H179)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="18">
+      <c r="F221" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I221" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="17">
         <v>1066</v>
       </c>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="20">
+      <c r="C222" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D222" s="25"/>
+      <c r="E222" s="19">
         <v>2010</v>
       </c>
-      <c r="F180" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I180" s="20">
-        <f>COUNTA(F180:H180)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="15" t="s">
+      <c r="F222" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I222" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="20">
+      <c r="C223" t="s">
+        <v>417</v>
+      </c>
+      <c r="D223" t="s">
+        <v>417</v>
+      </c>
+      <c r="E223" s="19">
         <v>2010</v>
       </c>
-      <c r="F181" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I181" s="20">
-        <f>COUNTA(F181:H181)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="15" t="s">
+      <c r="F223" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G223" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I223" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="20">
+      <c r="E224" s="19">
         <v>2010</v>
       </c>
-      <c r="F182" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I182" s="20">
-        <f>COUNTA(F182:H182)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="15" t="s">
+      <c r="F224" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I224" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="20">
+      <c r="C225" t="s">
+        <v>595</v>
+      </c>
+      <c r="D225" t="s">
+        <v>323</v>
+      </c>
+      <c r="E225" s="19">
         <v>2010</v>
       </c>
-      <c r="F183" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I183" s="20">
-        <f>COUNTA(F183:H183)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="15" t="s">
+      <c r="F225" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G225" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I225" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="20">
+      <c r="C226" t="s">
+        <v>597</v>
+      </c>
+      <c r="E226" s="19">
         <v>2010</v>
       </c>
-      <c r="F184" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I184" s="20">
-        <f>COUNTA(F184:H184)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C185" s="32"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="20">
+      <c r="F226" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G226" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I226" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="D227" s="29"/>
+      <c r="E227" s="19">
         <v>2010</v>
       </c>
-      <c r="F185" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I185" s="20">
-        <f>COUNTA(F185:H185)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="15" t="s">
+      <c r="G227" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I227" s="30">
+        <f>COUNTA(F227:H227)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E228" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G228" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I228" s="30">
+        <f>COUNTA(F228:H228)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E229" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G229" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I229" s="30">
+        <f>COUNTA(F229:H229)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="E230" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G230" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I230" s="30">
+        <f>COUNTA(F230:H230)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E231" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G231" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I231" s="30">
+        <f>COUNTA(F231:H231)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E232" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G232" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I232" s="30">
+        <f>COUNTA(F232:H232)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C233" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="D233" s="29"/>
+      <c r="E233" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G233" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I233" s="30">
+        <f>COUNTA(F233:H233)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C234" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E234" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G234" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I234" s="30">
+        <f>COUNTA(F234:H234)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C235" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="D235" s="29"/>
+      <c r="E235" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G235" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I235" s="30">
+        <f>COUNTA(F235:H235)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="D236" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E236" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G236" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I236" s="30">
+        <f>COUNTA(F236:H236)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C237" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="D237" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E237" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G237" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I237" s="30">
+        <f>COUNTA(F237:H237)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C238" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D238" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E238" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G238" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I238" s="30">
+        <f>COUNTA(F238:H238)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C239" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="D239" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E239" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G239" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I239" s="30">
+        <f>COUNTA(F239:H239)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C240" t="s">
+        <v>624</v>
+      </c>
+      <c r="D240" t="s">
+        <v>402</v>
+      </c>
+      <c r="E240" s="19">
+        <v>2010</v>
+      </c>
+      <c r="G240" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I240" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="20">
+      <c r="C241" t="s">
+        <v>321</v>
+      </c>
+      <c r="E241" s="19">
         <v>2010</v>
       </c>
-      <c r="F186" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I186" s="20">
-        <f>COUNTA(F186:H186)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="15" t="s">
+      <c r="F241" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G241" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I241" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="20">
+      <c r="C242" t="s">
+        <v>598</v>
+      </c>
+      <c r="D242" t="s">
+        <v>599</v>
+      </c>
+      <c r="E242" s="19">
         <v>2010</v>
       </c>
-      <c r="F187" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I187" s="20">
-        <f>COUNTA(F187:H187)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="15" t="s">
+      <c r="F242" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G242" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I242" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="20">
+      <c r="C243" t="s">
+        <v>600</v>
+      </c>
+      <c r="D243" t="s">
+        <v>323</v>
+      </c>
+      <c r="E243" s="19">
         <v>2010</v>
       </c>
-      <c r="F188" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I188" s="20">
-        <f>COUNTA(F188:H188)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="15" t="s">
+      <c r="F243" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G243" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I243" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="20">
+      <c r="C244" t="s">
+        <v>601</v>
+      </c>
+      <c r="D244" t="s">
+        <v>323</v>
+      </c>
+      <c r="E244" s="19">
         <v>2010</v>
       </c>
-      <c r="F189" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I189" s="20">
-        <f>COUNTA(F189:H189)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="15" t="s">
+      <c r="F244" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G244" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I244" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="20">
+      <c r="E245" s="19">
         <v>2010</v>
       </c>
-      <c r="F190" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I190" s="20">
-        <f>COUNTA(F190:H190)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="15" t="s">
+      <c r="F245" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I245" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C191" s="32" t="s">
+      <c r="C246" t="s">
         <v>271</v>
       </c>
-      <c r="D191" s="32"/>
-      <c r="E191" s="20">
+      <c r="E246" s="19">
         <v>2011</v>
       </c>
-      <c r="H191" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I191" s="20">
-        <f>COUNTA(F191:H191)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
-      <c r="B192" s="15" t="s">
+      <c r="H246" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I246" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="23"/>
+      <c r="B247" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C192" s="32" t="s">
+      <c r="C247" t="s">
         <v>272</v>
       </c>
-      <c r="D192" s="32"/>
-      <c r="E192" s="20">
+      <c r="E247" s="19">
         <v>2011</v>
       </c>
-      <c r="H192" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I192" s="20">
-        <f>COUNTA(F192:H192)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="15" t="s">
+      <c r="H247" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I247" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="23"/>
+      <c r="B248" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="20">
+      <c r="E248" s="19">
         <v>2011</v>
       </c>
-      <c r="F193" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I193" s="20">
-        <f>COUNTA(F193:H193)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
-      <c r="B194" s="15" t="s">
+      <c r="F248" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I248" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="23"/>
+      <c r="B249" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="20">
+      <c r="E249" s="19">
         <v>2011</v>
       </c>
-      <c r="F194" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I194" s="20">
-        <f>COUNTA(F194:H194)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
-      <c r="B195" s="15" t="s">
+      <c r="F249" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I249" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="23"/>
+      <c r="B250" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="20">
+      <c r="E250" s="19">
         <v>2011</v>
       </c>
-      <c r="F195" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I195" s="20">
-        <f>COUNTA(F195:H195)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="24"/>
-      <c r="B196" s="15" t="s">
+      <c r="F250" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I250" s="19">
+        <f t="shared" ref="I250:I313" si="3">COUNTA(F250:H250)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="23"/>
+      <c r="B251" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="20">
+      <c r="E251" s="19">
         <v>2011</v>
       </c>
-      <c r="F196" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I196" s="20">
-        <f>COUNTA(F196:H196)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="24"/>
-      <c r="B197" s="15" t="s">
+      <c r="F251" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I251" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="23"/>
+      <c r="B252" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="20">
+      <c r="E252" s="19">
         <v>2011</v>
       </c>
-      <c r="F197" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I197" s="20">
-        <f>COUNTA(F197:H197)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="24"/>
-      <c r="B198" s="15" t="s">
+      <c r="F252" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I252" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="23"/>
+      <c r="B253" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="20">
+      <c r="E253" s="19">
         <v>2011</v>
       </c>
-      <c r="F198" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I198" s="20">
-        <f>COUNTA(F198:H198)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="24"/>
-      <c r="B199" s="15" t="s">
+      <c r="F253" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I253" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="23"/>
+      <c r="B254" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C199" s="32" t="s">
+      <c r="C254" t="s">
         <v>20</v>
       </c>
-      <c r="D199" s="32"/>
-      <c r="E199" s="20">
+      <c r="E254" s="19">
         <v>2012</v>
       </c>
-      <c r="F199" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="H199" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I199" s="20">
-        <f>COUNTA(F199:H199)</f>
+      <c r="F254" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H254" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I254" s="19">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="24"/>
-      <c r="B200" s="15" t="s">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="23"/>
+      <c r="B255" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C200" s="32" t="s">
+      <c r="C255" t="s">
         <v>255</v>
       </c>
-      <c r="D200" s="32"/>
-      <c r="E200" s="20">
+      <c r="E255" s="19">
         <v>2012</v>
       </c>
-      <c r="H200" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I200" s="20">
-        <f>COUNTA(F200:H200)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="24"/>
-      <c r="B201" s="15" t="s">
+      <c r="H255" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I255" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="23"/>
+      <c r="B256" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="20">
+      <c r="E256" s="19">
         <v>2012</v>
       </c>
-      <c r="F201" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I201" s="20">
-        <f>COUNTA(F201:H201)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="24"/>
-      <c r="B202" s="15" t="s">
+      <c r="F256" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I256" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="23"/>
+      <c r="B257" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C257" t="s">
         <v>263</v>
       </c>
-      <c r="D202" s="32"/>
-      <c r="E202" s="20">
+      <c r="E257" s="19">
         <v>2013</v>
       </c>
-      <c r="H202" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I202" s="20">
-        <f>COUNTA(F202:H202)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="24"/>
-      <c r="B203" s="15" t="s">
+      <c r="H257" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I257" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="23"/>
+      <c r="B258" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="20">
+      <c r="E258" s="19">
         <v>2013</v>
       </c>
-      <c r="F203" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I203" s="20">
-        <f>COUNTA(F203:H203)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="15" t="s">
+      <c r="F258" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I258" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="23"/>
+      <c r="B259" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C204" s="32" t="s">
+      <c r="C259" t="s">
         <v>266</v>
       </c>
-      <c r="D204" s="32"/>
-      <c r="E204" s="20">
+      <c r="E259" s="19">
         <v>2014</v>
       </c>
-      <c r="H204" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I204" s="20">
-        <f>COUNTA(F204:H204)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
-      <c r="B205" s="15" t="s">
+      <c r="H259" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I259" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="23"/>
+      <c r="B260" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C205" s="32" t="s">
+      <c r="C260" t="s">
         <v>258</v>
       </c>
-      <c r="D205" s="32"/>
-      <c r="E205" s="20">
+      <c r="E260" s="19">
         <v>2014</v>
       </c>
-      <c r="H205" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I205" s="20">
-        <f>COUNTA(F205:H205)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="24"/>
-      <c r="B206" s="15" t="s">
+      <c r="H260" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I260" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="23"/>
+      <c r="B261" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C206" s="32" t="s">
+      <c r="C261" t="s">
         <v>270</v>
       </c>
-      <c r="D206" s="32"/>
-      <c r="E206" s="20">
+      <c r="E261" s="19">
         <v>2015</v>
       </c>
-      <c r="H206" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I206" s="20">
-        <f>COUNTA(F206:H206)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="24"/>
-      <c r="B207" s="15" t="s">
+      <c r="H261" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I261" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="23"/>
+      <c r="B262" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C207" s="32" t="s">
+      <c r="C262" t="s">
         <v>241</v>
       </c>
-      <c r="D207" s="32"/>
-      <c r="I207" s="27">
-        <f>COUNTA(F207:H207)</f>
+      <c r="I262" s="19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8426,28 +9987,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="4" max="4" width="12" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8455,10 +10016,10 @@
       <c r="B3" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -8466,10 +10027,10 @@
       <c r="B4" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -8477,10 +10038,10 @@
       <c r="B5" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -8488,524 +10049,402 @@
       <c r="B6" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>2014</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
-      <c r="C18" s="28"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="15"/>
-      <c r="C74" s="16"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
-      <c r="C77" s="16"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15"/>
-      <c r="C78" s="16"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15"/>
-      <c r="C79" s="16"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15"/>
-      <c r="C81" s="16"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15"/>
-      <c r="C82" s="16"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="15"/>
-      <c r="C83" s="16"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15"/>
-      <c r="C86" s="16"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15"/>
-      <c r="C88" s="16"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="15"/>
-      <c r="C89" s="16"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15"/>
-      <c r="C91" s="16"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15"/>
-      <c r="C92" s="16"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15"/>
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15"/>
-      <c r="C94" s="16"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15"/>
-      <c r="C95" s="16"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="15"/>
-      <c r="C96" s="16"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="15"/>
-      <c r="C98" s="16"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="15"/>
-      <c r="C99" s="16"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="15"/>
-      <c r="C100" s="16"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="15"/>
-      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="18"/>
-      <c r="C103" s="26"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="25"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="15"/>
-      <c r="C104" s="16"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="15"/>
-      <c r="C105" s="16"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="15"/>
-      <c r="C106" s="16"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="15"/>
-      <c r="C107" s="16"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="15"/>
-      <c r="C108" s="16"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="15"/>
-      <c r="C109" s="16"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="15"/>
-      <c r="C110" s="16"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="15"/>
-      <c r="C111" s="16"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="15"/>
-      <c r="C112" s="16"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113" s="15"/>
-      <c r="C113" s="16"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15"/>
-      <c r="C114" s="16"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="16"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="23"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="16"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="23"/>
       <c r="B117" s="15"/>
-      <c r="C117" s="16"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="23"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="16"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
       <c r="B119" s="15"/>
-      <c r="C119" s="16"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="23"/>
       <c r="B120" s="15"/>
-      <c r="C120" s="16"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="16"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="23"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="16"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="23"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="16"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="23"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="16"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="23"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="16"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="23"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="16"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="23"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="16"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="23"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="16"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="23"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="16"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="23"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9164,7 +10603,7 @@
       <c r="D20" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>262</v>
       </c>
       <c r="F20" s="2"/>
